--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC455CB-94AF-45F2-AD51-4CC87F68FA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFC173C-C66E-4A24-91A0-F397DF1F8E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,14 @@
     <sheet name="Profile" sheetId="2" r:id="rId3"/>
     <sheet name="SkillDetails" sheetId="4" r:id="rId4"/>
     <sheet name="ManageListings" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Url</t>
   </si>
@@ -122,100 +123,109 @@
     <t>infohemalipatel29@gmail.com</t>
   </si>
   <si>
+    <t>http://192.168.99.100:5000</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Would like to provide selenium training for beginners</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Nunit</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Test Anyalst</t>
+  </si>
+  <si>
+    <t>Testing123</t>
+  </si>
+  <si>
     <t>hemali@2910</t>
   </si>
   <si>
-    <t>http://192.168.99.100:5000</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>Startdate</t>
-  </si>
-  <si>
-    <t>Enddate</t>
-  </si>
-  <si>
-    <t>Selectday</t>
-  </si>
-  <si>
-    <t>Starttime</t>
-  </si>
-  <si>
-    <t>Endtime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>Skill-Exchange</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>Would like to provide selenium training for beginners</t>
-  </si>
-  <si>
-    <t>Programming &amp; Tech</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>One-off service</t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Performance Testing</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>Nunit</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Technical</t>
-  </si>
-  <si>
-    <t>Test Anyalst</t>
-  </si>
-  <si>
-    <t>Testing123</t>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
   </si>
 </sst>
 </file>
@@ -226,7 +236,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +250,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,15 +288,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -682,7 +699,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,13 +722,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -815,10 +832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5318C752-1EA9-46B3-84D6-1FD4DE9A2CBF}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,42 +848,44 @@
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="22.21875" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="39.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
+      <c r="J1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -877,74 +896,85 @@
       <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" s="3">
-        <v>43567</v>
+        <v>44122</v>
       </c>
       <c r="I2" s="3">
-        <v>43597</v>
-      </c>
-      <c r="J2" t="s">
+        <v>44132</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>57</v>
       </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J3" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937377EC-4336-4F35-9A85-D326635D076E}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,84 +982,87 @@
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
       <c r="H2" s="3">
         <v>43567</v>
@@ -1038,28 +1071,58 @@
         <v>43597</v>
       </c>
       <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>57</v>
       </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" t="s">
-        <v>58</v>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K3" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K4" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A26A70-10D4-4E96-BF40-FC7FF0101EF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFC173C-C66E-4A24-91A0-F397DF1F8E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA133BBA-3B8F-44F4-B027-73446E8E8DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Url</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Technical</t>
-  </si>
-  <si>
-    <t>Test Anyalst</t>
-  </si>
-  <si>
     <t>Testing123</t>
   </si>
   <si>
@@ -226,6 +220,18 @@
   </si>
   <si>
     <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Select day</t>
+  </si>
+  <si>
+    <t>Writing &amp; Translation</t>
+  </si>
+  <si>
+    <t>Creative Writing</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +841,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,10 +888,10 @@
         <v>40</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -917,16 +923,14 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="3">
-        <v>44122</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
-        <v>44132</v>
+        <v>44193</v>
       </c>
       <c r="J2" s="7">
         <v>0.75</v>
@@ -949,7 +953,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J3" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="K3" s="7">
         <v>0.875</v>
@@ -971,10 +975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937377EC-4336-4F35-9A85-D326635D076E}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,15 +988,15 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="7" max="8" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1014,35 +1018,38 @@
       <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1050,13 +1057,13 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1064,52 +1071,56 @@
       <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="3">
-        <v>43567</v>
+      <c r="H2" t="s">
+        <v>65</v>
       </c>
       <c r="I2" s="3">
-        <v>43597</v>
-      </c>
-      <c r="J2" t="s">
+        <v>44123</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44129</v>
+      </c>
+      <c r="K2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>0.75</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K3" s="7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L3" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K4" s="7">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L4" s="7">
         <v>0.875</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA133BBA-3B8F-44F4-B027-73446E8E8DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BEEE8-7785-4306-8BD6-0634F3605309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,11 +238,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,12 +257,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -303,7 +298,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,10 +833,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5318C752-1EA9-46B3-84D6-1FD4DE9A2CBF}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +849,7 @@
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="22.21875" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="10" max="11" width="16.44140625" style="8" customWidth="1"/>
     <col min="12" max="12" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="21.44140625" customWidth="1"/>
   </cols>
@@ -932,10 +927,10 @@
       <c r="I2" s="3">
         <v>44193</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>0.75</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>0.83333333333333337</v>
       </c>
       <c r="L2" t="s">
@@ -952,20 +947,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J3" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J3" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.83333333333333337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,7 +965,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BEEE8-7785-4306-8BD6-0634F3605309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B374D35-C699-40D6-AEAE-D9160BED8E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Profile" sheetId="2" r:id="rId3"/>
     <sheet name="SkillDetails" sheetId="4" r:id="rId4"/>
     <sheet name="ManageListings" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Language" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Url</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Testing123</t>
   </si>
   <si>
-    <t>hemali@2910</t>
-  </si>
-  <si>
     <t>StartTime</t>
   </si>
   <si>
@@ -232,6 +229,12 @@
   </si>
   <si>
     <t>Creative Writing</t>
+  </si>
+  <si>
+    <t>Hemali@2910</t>
+  </si>
+  <si>
+    <t>Hindi</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5318C752-1EA9-46B3-84D6-1FD4DE9A2CBF}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -883,10 +886,10 @@
         <v>40</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="L1" t="s">
         <v>44</v>
@@ -918,7 +921,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -1006,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>39</v>
@@ -1044,10 +1047,10 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -1059,7 +1062,7 @@
         <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3">
         <v>44123</v>
@@ -1113,14 +1116,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A26A70-10D4-4E96-BF40-FC7FF0101EF0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>